--- a/MNPOST/obj/Release/Package/PackageTmp/Templates/mailer.template.xlsx
+++ b/MNPOST/obj/Release/Package/PackageTmp/Templates/mailer.template.xlsx
@@ -5,10 +5,9 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NAM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Project\007MNPost\MNPOST\MNPOST\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection revisionsAlgorithmName="SHA-512" revisionsHashValue="9ivg0cVX+3bNzf6Zh2e8069Fw6CKtQCfmsILdRey62BIA8/qqjFPvR5aXzu0tGTsiz8SyRtIJIw8o+MAhMdHzg==" revisionsSaltValue="kYeSN1uMw0ByMF6C6e1GCw==" revisionsSpinCount="100000" lockRevision="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
   </bookViews>
@@ -82,12 +81,8 @@
     <definedName name="VPC">data!$B$31:$B$39</definedName>
     <definedName name="VTU">data!$B$86:$B$93</definedName>
     <definedName name="YBN">data!$D$36:$D$44</definedName>
-    <definedName name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" localSheetId="2" hidden="1">'Mã tỉnh thành'!$A$1:$B$64</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <customWorkbookViews>
-    <customWorkbookView name="NAM - Personal View" guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="886" activeSheetId="1"/>
-  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -97,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="866">
   <si>
     <t>MÃ VẬN ĐƠN (1)</t>
   </si>
@@ -111,15 +106,6 @@
     <t>ĐỊA CHỈ PHÁT (4)</t>
   </si>
   <si>
-    <t>TỈNH THÀNH (5)</t>
-  </si>
-  <si>
-    <t>QUẬN HUYỆN (6)</t>
-  </si>
-  <si>
-    <t>PHƯỜNG XÃ (7)</t>
-  </si>
-  <si>
     <t>COD (10)</t>
   </si>
   <si>
@@ -2664,52 +2650,46 @@
     <t>TÊN</t>
   </si>
   <si>
-    <t>SN-NHANH</t>
-  </si>
-  <si>
-    <t>ST-TIẾT KIỆM</t>
-  </si>
-  <si>
-    <t>NGTT-NGƯỜI GỬI THANH TOÁN</t>
-  </si>
-  <si>
-    <t>NNTT-NGƯỜI NHẬN THANH TOÁN</t>
-  </si>
-  <si>
-    <t>H-HÀNG HÓA</t>
-  </si>
-  <si>
-    <t>T-TÀI LIỆU</t>
-  </si>
-  <si>
     <t>LH (11)</t>
   </si>
   <si>
-    <t>THANH TOÁN (9)</t>
-  </si>
-  <si>
     <t>DV (8)</t>
   </si>
   <si>
     <t>TL - GRAM (12)</t>
   </si>
   <si>
-    <t>N000001</t>
-  </si>
-  <si>
-    <t>Hoài Nam</t>
-  </si>
-  <si>
-    <t>0973962274</t>
-  </si>
-  <si>
-    <t>10 Cô Giang, p. Cầu Ông Lãnh, Quận 1</t>
-  </si>
-  <si>
-    <t>hàng hóa test</t>
-  </si>
-  <si>
-    <t>giọi khi phát</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>NGTT</t>
+  </si>
+  <si>
+    <t>NNTT</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>TỈNH THÀNH NHẬN (5)</t>
+  </si>
+  <si>
+    <t>HT THANH TOÁN (9)</t>
+  </si>
+  <si>
+    <t>VSVX(14)</t>
   </si>
 </sst>
 </file>
@@ -2733,13 +2713,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -2767,6 +2740,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="25">
@@ -2914,7 +2893,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2937,6 +2916,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2944,9 +2936,8 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -2978,14 +2969,31 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="24" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -3002,566 +3010,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2C7C57BF-C3C0-4A23-B9EB-8856E8527066}" diskRevisions="1" revisionId="37" version="23" protected="1">
-  <header guid="{08ABC1B3-9215-4B8F-9EB4-6CB163BA7ECE}" dateTime="2018-12-11T02:56:51" maxSheetId="4" userName="NAM" r:id="rId1">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F6E555E5-5E52-4CDD-91E7-AA28A25A8500}" dateTime="2018-12-11T02:57:18" maxSheetId="4" userName="NAM" r:id="rId2">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{38A68C23-E3E0-4D5D-BA9F-E24641BD1D59}" dateTime="2018-12-11T02:57:35" maxSheetId="4" userName="NAM" r:id="rId3" minRId="2">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7F5C2DFF-F66C-45A4-872D-8B673B364596}" dateTime="2018-12-11T02:57:41" maxSheetId="4" userName="NAM" r:id="rId4">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{72A04810-706C-48E2-BF5B-E560C0BA8D3A}" dateTime="2018-12-11T02:57:41" maxSheetId="4" userName="NAM" r:id="rId5">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{798F30B5-F105-425F-99CF-B2D921A01706}" dateTime="2018-12-11T02:57:48" maxSheetId="4" userName="NAM" r:id="rId6">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5C9CBF8D-7439-41BB-8352-5D08C028728F}" dateTime="2018-12-11T02:59:12" maxSheetId="4" userName="NAM" r:id="rId7">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{EC544310-B45A-4FC0-8249-57E6374CA903}" dateTime="2018-12-11T02:59:12" maxSheetId="4" userName="NAM" r:id="rId8">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{84CA2D3C-283A-4670-A88D-4709CA4491C6}" dateTime="2018-12-11T02:59:15" maxSheetId="4" userName="NAM" r:id="rId9">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{16811F24-CEE6-4BDA-8693-71255B375045}" dateTime="2018-12-11T02:59:15" maxSheetId="4" userName="NAM" r:id="rId10">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{92890338-087E-42FD-90DD-2D99C3BB1DC0}" dateTime="2018-12-11T02:59:17" maxSheetId="4" userName="NAM" r:id="rId11">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F3EA4919-1C4E-452E-A373-B7FAD3B69B67}" dateTime="2018-12-11T02:59:17" maxSheetId="4" userName="NAM" r:id="rId12">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7CA7E25A-3C08-4E75-9ECB-5425B1C77EEA}" dateTime="2018-12-11T02:59:18" maxSheetId="4" userName="NAM" r:id="rId13">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2625D0EF-E3B1-41A2-AC9D-18272B698D8D}" dateTime="2018-12-11T02:59:18" maxSheetId="4" userName="NAM" r:id="rId14">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{47BCBA28-5E93-4C2C-AD1A-A2C8B2B52D7C}" dateTime="2018-12-11T02:59:36" maxSheetId="4" userName="NAM" r:id="rId15">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0BEF4A46-4115-4333-BB57-E4AA88C2C018}" dateTime="2018-12-11T02:59:36" maxSheetId="4" userName="NAM" r:id="rId16">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7AFFCCD0-A3F0-4C12-ADB2-D53AA6517314}" dateTime="2018-12-11T02:59:37" maxSheetId="4" userName="NAM" r:id="rId17">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1AE0D56E-827E-49E6-BAA6-33CA782A4E3D}" dateTime="2018-12-11T02:59:37" maxSheetId="4" userName="NAM" r:id="rId18">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{DF6E5E6E-61DB-4D50-A077-DA6799D56A61}" dateTime="2018-12-11T02:59:52" maxSheetId="4" userName="NAM" r:id="rId19">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{070E42E2-BC15-4440-B70A-9F0090143523}" dateTime="2018-12-11T02:59:52" maxSheetId="4" userName="NAM" r:id="rId20">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CCBFB42E-2A16-4841-9A64-183616E5464F}" dateTime="2018-12-11T03:01:35" maxSheetId="4" userName="NAM" r:id="rId21" minRId="21" maxRId="23">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{34B218C2-76E8-46C1-9A2B-452869071499}" dateTime="2018-12-11T03:02:42" maxSheetId="4" userName="NAM" r:id="rId22" minRId="25" maxRId="31">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2C7C57BF-C3C0-4A23-B9EB-8856E8527066}" dateTime="2018-12-11T03:03:01" maxSheetId="4" userName="NAM" r:id="rId23" minRId="33" maxRId="36">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="A1:O1048576">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="A1:O1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="B1:F1" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="21" sId="1">
-    <nc r="A2" t="inlineStr">
-      <is>
-        <t>N000001</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="22" sId="1">
-    <nc r="B2" t="inlineStr">
-      <is>
-        <t>Hoài Nam</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="C1:C1048576">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="C1:C1048576">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="C1:C1048576">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="23" sId="1" numFmtId="30">
-    <nc r="C2" t="inlineStr">
-      <is>
-        <t>0973962274</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="25" sId="1">
-    <nc r="D2" t="inlineStr">
-      <is>
-        <t>10 Cô Giang, p. Cầu Ông Lãnh, Quận 1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="26" sId="1">
-    <oc r="E2" t="inlineStr">
-      <is>
-        <t>VPC</t>
-      </is>
-    </oc>
-    <nc r="E2" t="inlineStr">
-      <is>
-        <t>HCM</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="27" sId="1">
-    <nc r="F2" t="inlineStr">
-      <is>
-        <t>43-QUẬN 1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="28" sId="1">
-    <nc r="H2" t="inlineStr">
-      <is>
-        <t>SN-NHANH</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="29" sId="1">
-    <nc r="I2" t="inlineStr">
-      <is>
-        <t>NGTT-NGƯỜI GỬI THANH TOÁN</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="30" sId="1" numFmtId="11">
-    <nc r="J2">
-      <v>1000000</v>
-    </nc>
-  </rcc>
-  <rcc rId="31" sId="1">
-    <nc r="K2" t="inlineStr">
-      <is>
-        <t>H-HÀNG HÓA</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="33" sId="1">
-    <nc r="L2">
-      <v>1000</v>
-    </nc>
-  </rcc>
-  <rcc rId="34" sId="1">
-    <nc r="M2">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="35" sId="1">
-    <nc r="O2" t="inlineStr">
-      <is>
-        <t>hàng hóa test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="36" sId="1">
-    <nc r="N2" t="inlineStr">
-      <is>
-        <t>giọi khi phát</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="2" sId="1">
-    <nc r="E2" t="inlineStr">
-      <is>
-        <t>VPC</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_902A4229_9835_4C65_8557_4E42DFA2F045_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Mã tỉnh thành'!$A$1:$B$64</formula>
-    <oldFormula>'Mã tỉnh thành'!$A$1:$B$64</oldFormula>
-  </rdn>
-  <rcv guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3827,143 +3275,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="21" style="33" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" style="34" customWidth="1"/>
-    <col min="11" max="11" width="17" style="33" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="32" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" style="32" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" style="32" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="25.140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="25" style="30" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="28" style="30" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="26" style="32" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="30" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="32" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" style="32" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" style="32" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>865</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>864</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="J1" s="31" t="s">
+        <v>852</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>854</v>
+      </c>
+      <c r="L1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="M1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>863</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>862</v>
-      </c>
-      <c r="J1" s="31" t="s">
+      <c r="N1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>864</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>865</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>867</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>868</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>855</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>857</v>
-      </c>
-      <c r="J2" s="34">
-        <v>1000000</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>859</v>
-      </c>
-      <c r="L2" s="33">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="32">
-        <v>1</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>870</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>869</v>
-      </c>
     </row>
   </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{902A4229-9835-4C65-8557-4E42DFA2F045}">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N14" sqref="N14"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-    </customSheetView>
-  </customSheetViews>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>INDIRECT(E2)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>data!$A$1:$A$63</xm:f>
@@ -3974,19 +3360,25 @@
           <x14:formula1>
             <xm:f>data!$H$1:$H$2</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
+          <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>data!$H$3:$H$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I1048576</xm:sqref>
+          <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>data!$H$5:$H$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1048576</xm:sqref>
+          <xm:sqref>J2:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>data!$H$7:$H$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3998,2786 +3390,2786 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="30.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H4" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="H2" s="6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C11" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C13" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G19" s="13" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G20" s="13" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G21" s="13" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G27" s="13" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G28" s="13" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G29" s="16" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G30" s="16" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="16" t="s">
+      <c r="B31" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G31" s="16" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="B32" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G32" s="16" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="16" t="s">
+      <c r="B33" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G33" s="16" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G34" s="16" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G35" s="16" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G36" s="16" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G37" s="16" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F38" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G38" s="16" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C39" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G39" s="16" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B40" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C40" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G40" s="16" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B41" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C41" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G41" s="16" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B42" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G42" s="16" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G43" s="16" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E44" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G44" s="16" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G45" s="16" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E46" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G46" s="18" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E47" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G47" s="18" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B48" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E48" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F48" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G48" s="18" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B49" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E49" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F49" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G49" s="18" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B50" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E50" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F50" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G50" s="18" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B51" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E51" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F51" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G51" s="18" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B52" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E52" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F52" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="G52" s="18" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B53" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E53" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F53" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G53" s="18" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B54" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E54" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F54" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G54" s="18" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B55" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C55" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E55" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F55" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G55" s="18" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B56" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E56" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F56" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G56" s="18" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B57" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C57" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E57" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F57" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G57" s="18" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B58" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E58" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F58" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="G55" s="19" t="s">
+      <c r="G58" s="18" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B59" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E59" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F59" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="G56" s="19" t="s">
+      <c r="G59" s="18" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B60" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E60" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F60" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G57" s="19" t="s">
+      <c r="G60" s="18" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B61" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E61" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F61" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G61" s="8" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B62" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E62" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F62" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="G62" s="8" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B63" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E63" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F63" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="G60" s="19" t="s">
+      <c r="G63" s="8" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="21" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C64" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E64" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F64" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G64" s="8" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="21" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C65" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E65" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F65" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G65" s="8" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B63" s="21" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C66" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E66" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F66" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G66" s="8" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="21" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E67" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F67" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G67" s="8" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="21" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E68" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F68" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G68" s="8" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="21" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C69" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E69" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F69" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G69" s="8" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="21" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E70" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F70" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G70" s="8" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="21" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C71" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E71" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F71" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G71" s="8" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="21" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E72" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F72" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G72" s="8" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="22" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D73" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E73" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F73" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G73" s="22" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="22" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C74" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E74" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F74" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G74" s="22" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="22" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C75" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D75" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E75" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F75" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G75" s="22" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D73" s="10" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E76" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F76" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="G73" s="23" t="s">
+      <c r="G76" s="22" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E74" s="10" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F77" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="G74" s="23" t="s">
+      <c r="G77" s="22" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="E75" s="10" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="E78" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F78" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="G75" s="23" t="s">
+      <c r="G78" s="22" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="9" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="D76" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E76" s="10" t="s">
+      <c r="D79" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F79" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="G76" s="23" t="s">
+      <c r="G79" s="22" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="9" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D80" s="23" t="s">
         <v>695</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E80" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F80" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="G77" s="23" t="s">
+      <c r="G80" s="7" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="9" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D81" s="23" t="s">
         <v>696</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E81" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F81" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="G78" s="23" t="s">
+      <c r="G81" s="7" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="9" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D82" s="23" t="s">
         <v>697</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E82" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F82" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="G79" s="23" t="s">
+      <c r="G82" s="7" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="9" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D83" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E83" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F83" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G83" s="7" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="9" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D84" s="23" t="s">
         <v>699</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E84" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F84" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G84" s="7" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="9" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D85" s="23" t="s">
         <v>700</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E85" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F85" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G85" s="7" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="9" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D86" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E86" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F86" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G86" s="7" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="9" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="24" t="s">
         <v>639</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D87" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E87" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F87" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G87" s="7" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="9" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="24" t="s">
         <v>640</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C88" s="17" t="s">
         <v>673</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D88" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="E85" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="F85" s="10" t="s">
+      <c r="E88" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="F88" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G88" s="7" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="25" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C89" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D89" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="E86" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="F86" s="10" t="s">
+      <c r="E89" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="F89" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G89" s="7" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="25" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="24" t="s">
         <v>642</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C90" s="17" t="s">
         <v>675</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D90" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="E87" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="F87" s="10" t="s">
+      <c r="E90" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="F90" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G90" s="7" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-      <c r="B88" s="25" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="24" t="s">
         <v>643</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C91" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D91" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="E88" s="23" t="s">
+      <c r="E91" s="22" t="s">
         <v>729</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="F91" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G91" s="6" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="25" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="B92" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C92" s="17" t="s">
         <v>677</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D92" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E89" s="23" t="s">
+      <c r="E92" s="22" t="s">
         <v>730</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F92" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G92" s="6" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-      <c r="B90" s="25" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+      <c r="B93" s="24" t="s">
         <v>645</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C93" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D93" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="E90" s="23" t="s">
+      <c r="E93" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F93" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G93" s="6" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="25" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C94" s="17" t="s">
         <v>679</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D94" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="E91" s="23" t="s">
+      <c r="E94" s="22" t="s">
         <v>732</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F94" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G94" s="6" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-      <c r="B92" s="25" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C95" s="17" t="s">
         <v>680</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D95" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E95" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F95" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G95" s="6" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="25" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C96" s="17" t="s">
         <v>681</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D96" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E96" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F96" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="G96" s="6" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C97" s="17" t="s">
         <v>682</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D97" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="E94" s="23" t="s">
+      <c r="E97" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="F94" s="26" t="s">
+      <c r="F97" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="G97" s="6" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C98" s="17" t="s">
         <v>683</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D98" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="E95" s="23" t="s">
+      <c r="E98" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="F95" s="26" t="s">
+      <c r="F98" s="25" t="s">
         <v>481</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G98" s="6" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C99" s="24" t="s">
         <v>684</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D99" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E99" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="F96" s="26" t="s">
+      <c r="F99" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="G99" s="6" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C100" s="24" t="s">
         <v>685</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D100" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E100" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="F97" s="26" t="s">
+      <c r="F100" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G100" s="26" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C101" s="24" t="s">
         <v>686</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D101" s="17" t="s">
         <v>716</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E101" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="F98" s="26" t="s">
+      <c r="F101" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="G101" s="26" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C102" s="24" t="s">
         <v>687</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D102" s="17" t="s">
         <v>717</v>
       </c>
-      <c r="E99" s="14" t="s">
+      <c r="E102" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="F99" s="26" t="s">
+      <c r="F102" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G102" s="26" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="C103" s="24" t="s">
         <v>688</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D103" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="E100" s="14" t="s">
+      <c r="E103" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="F100" s="26" t="s">
+      <c r="F103" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="G100" s="27" t="s">
+      <c r="G103" s="26" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C104" s="24" t="s">
         <v>689</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D104" s="17" t="s">
         <v>719</v>
       </c>
-      <c r="E101" s="14" t="s">
+      <c r="E104" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="F101" s="26" t="s">
+      <c r="F104" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="G101" s="27" t="s">
+      <c r="G104" s="26" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C105" s="24" t="s">
         <v>690</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="D105" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="E102" s="14" t="s">
+      <c r="E105" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="F102" s="26" t="s">
+      <c r="F105" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="G102" s="27" t="s">
+      <c r="G105" s="26" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C106" s="24" t="s">
         <v>691</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D106" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E106" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="F103" s="10" t="s">
+      <c r="F106" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="G103" s="27" t="s">
+      <c r="G106" s="26" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="C104" s="25" t="s">
-        <v>692</v>
-      </c>
-      <c r="D104" s="18" t="s">
+      <c r="C107" s="9"/>
+      <c r="D107" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E107" s="25" t="s">
         <v>745</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="F107" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="G104" s="27" t="s">
+      <c r="G107" s="26" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="C105" s="25" t="s">
-        <v>693</v>
-      </c>
-      <c r="D105" s="18" t="s">
+      <c r="C108" s="9"/>
+      <c r="D108" s="17" t="s">
         <v>723</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="E108" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="F105" s="10" t="s">
+      <c r="F108" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="G105" s="27" t="s">
+      <c r="G108" s="26" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>694</v>
-      </c>
-      <c r="D106" s="18" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="6"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="E106" s="14" t="s">
+      <c r="E109" s="25" t="s">
         <v>747</v>
       </c>
-      <c r="F106" s="10" t="s">
+      <c r="F109" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="G106" s="27" t="s">
+      <c r="G109" s="26" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="18" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="E107" s="26" t="s">
+      <c r="E110" s="25" t="s">
         <v>748</v>
       </c>
-      <c r="F107" s="10" t="s">
+      <c r="F110" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="G107" s="27" t="s">
+      <c r="G110" s="26" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="18" t="s">
-        <v>726</v>
-      </c>
-      <c r="E108" s="26" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="F108" s="10" t="s">
+      <c r="F111" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G108" s="27" t="s">
+      <c r="G111" s="26" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="18" t="s">
-        <v>727</v>
-      </c>
-      <c r="E109" s="26" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="F109" s="10" t="s">
+      <c r="F112" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="G109" s="27" t="s">
+      <c r="G112" s="23" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="18" t="s">
-        <v>728</v>
-      </c>
-      <c r="E110" s="26" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="25" t="s">
         <v>751</v>
       </c>
-      <c r="F110" s="10" t="s">
+      <c r="F113" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="G110" s="27" t="s">
+      <c r="G113" s="23" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="26" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="27" t="s">
         <v>752</v>
       </c>
-      <c r="F111" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="G111" s="27" t="s">
+      <c r="F114" s="27" t="s">
+        <v>761</v>
+      </c>
+      <c r="G114" s="23" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="26" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="27" t="s">
         <v>753</v>
       </c>
-      <c r="F112" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="G112" s="24" t="s">
+      <c r="F115" s="27" t="s">
+        <v>762</v>
+      </c>
+      <c r="G115" s="23" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="26" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="27" t="s">
         <v>754</v>
       </c>
-      <c r="F113" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="G113" s="24" t="s">
+      <c r="F116" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="G116" s="23" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="28" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="27" t="s">
         <v>755</v>
       </c>
-      <c r="F114" s="28" t="s">
+      <c r="F117" s="27" t="s">
         <v>764</v>
       </c>
-      <c r="G114" s="24" t="s">
+      <c r="G117" s="23" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="28" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="6"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="27" t="s">
         <v>756</v>
       </c>
-      <c r="F115" s="28" t="s">
+      <c r="F118" s="27" t="s">
         <v>765</v>
       </c>
-      <c r="G115" s="24" t="s">
+      <c r="G118" s="23" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="7"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="28" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="6"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="27" t="s">
         <v>757</v>
       </c>
-      <c r="F116" s="28" t="s">
+      <c r="F119" s="27" t="s">
         <v>766</v>
       </c>
-      <c r="G116" s="24" t="s">
+      <c r="G119" s="23" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="28" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="6"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="27" t="s">
         <v>758</v>
       </c>
-      <c r="F117" s="28" t="s">
+      <c r="F120" s="27" t="s">
         <v>767</v>
       </c>
-      <c r="G117" s="24" t="s">
+      <c r="G120" s="23" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="7"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="28" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="6"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="27" t="s">
         <v>759</v>
       </c>
-      <c r="F118" s="28" t="s">
+      <c r="F121" s="27" t="s">
         <v>768</v>
       </c>
-      <c r="G118" s="24" t="s">
+      <c r="G121" s="6" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="7"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="28" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="27" t="s">
         <v>760</v>
       </c>
-      <c r="F119" s="28" t="s">
+      <c r="F122" s="27" t="s">
         <v>769</v>
       </c>
-      <c r="G119" s="24" t="s">
+      <c r="G122" s="6" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="7"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="28" t="s">
-        <v>761</v>
-      </c>
-      <c r="F120" s="28" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="F123" s="27" t="s">
         <v>770</v>
       </c>
-      <c r="G120" s="24" t="s">
+      <c r="G123" s="6" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="7"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="28" t="s">
-        <v>762</v>
-      </c>
-      <c r="F121" s="28" t="s">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="6"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="F124" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="G124" s="6" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="7"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="28" t="s">
-        <v>763</v>
-      </c>
-      <c r="F122" s="28" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="6"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="F125" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="G125" s="6" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="7"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="17" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="6"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="16" t="s">
         <v>782</v>
       </c>
-      <c r="F123" s="28" t="s">
+      <c r="F126" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="G126" s="6" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="7"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="17" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="6"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="16" t="s">
         <v>783</v>
       </c>
-      <c r="F124" s="10" t="s">
+      <c r="F127" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="G124" s="7" t="s">
+      <c r="G127" s="6" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="7"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="17" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="6"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="16" t="s">
         <v>784</v>
       </c>
-      <c r="F125" s="10" t="s">
+      <c r="F128" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="G125" s="7" t="s">
+      <c r="G128" s="6" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="17" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="16" t="s">
         <v>785</v>
       </c>
-      <c r="F126" s="10" t="s">
+      <c r="F129" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="G129" s="6" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="7"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="17" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="6"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="16" t="s">
         <v>786</v>
       </c>
-      <c r="F127" s="10" t="s">
+      <c r="F130" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="G127" s="7" t="s">
+      <c r="G130" s="6" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="7"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="17" t="s">
-        <v>787</v>
-      </c>
-      <c r="F128" s="10" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="6"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="G128" s="7" t="s">
+      <c r="G131" s="6" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="7"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>779</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="7"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="17" t="s">
-        <v>789</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>780</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="7"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
-  <customSheetViews>
-    <customSheetView guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" state="hidden" topLeftCell="C55">
-      <selection activeCell="H14" sqref="H14"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-  </customSheetViews>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6786,538 +6178,530 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>854</v>
+      <c r="A1" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>849</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>852</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B64"/>
-  <customSheetViews>
-    <customSheetView guid="{902A4229-9835-4C65-8557-4E42DFA2F045}" showAutoFilter="1" topLeftCell="A22">
-      <selection activeCell="F46" sqref="F46"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-      <autoFilter ref="A1:B64"/>
-    </customSheetView>
-  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
